--- a/web/public/template.xlsx
+++ b/web/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebCode\git\customer-manage\web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A744CF2F-9FAD-41A6-A73E-D30B699AADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8C640-70AF-4F7E-9D20-AA6E9267AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="7725" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="765" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>客户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＱＱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,7 +412,7 @@
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,10 +433,29 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>